--- a/data/RIVADAVIA/RIVADAVIA.xlsx
+++ b/data/RIVADAVIA/RIVADAVIA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAppEAR\data\RIVADAVIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8FE7BD-3CC4-4E23-9FB8-03B860D3B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041FB1F-23CD-46E1-9C9D-778910FA27D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9453,13 +9453,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9765,7 +9764,7 @@
   <dimension ref="A1:J1103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A966" workbookViewId="0">
-      <selection activeCell="B982" sqref="B982"/>
+      <selection activeCell="E988" sqref="E988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37965,7 +37964,7 @@
       <c r="A973" t="s">
         <v>2760</v>
       </c>
-      <c r="B973" t="s">
+      <c r="B973" s="2" t="s">
         <v>2761</v>
       </c>
       <c r="C973" t="s">
@@ -37994,7 +37993,7 @@
       <c r="A974" t="s">
         <v>2763</v>
       </c>
-      <c r="B974" t="s">
+      <c r="B974" s="2" t="s">
         <v>2764</v>
       </c>
       <c r="C974" t="s">
@@ -38023,7 +38022,7 @@
       <c r="A975" t="s">
         <v>2766</v>
       </c>
-      <c r="B975" t="s">
+      <c r="B975" s="2" t="s">
         <v>2767</v>
       </c>
       <c r="C975" t="s">
@@ -38052,7 +38051,7 @@
       <c r="A976" t="s">
         <v>2769</v>
       </c>
-      <c r="B976" t="s">
+      <c r="B976" s="2" t="s">
         <v>2770</v>
       </c>
       <c r="C976" t="s">
@@ -38081,7 +38080,7 @@
       <c r="A977" t="s">
         <v>2772</v>
       </c>
-      <c r="B977" t="s">
+      <c r="B977" s="2" t="s">
         <v>2773</v>
       </c>
       <c r="C977" t="s">
@@ -38110,7 +38109,7 @@
       <c r="A978" t="s">
         <v>2774</v>
       </c>
-      <c r="B978" t="s">
+      <c r="B978" s="2" t="s">
         <v>2775</v>
       </c>
       <c r="C978" t="s">
@@ -38139,10 +38138,10 @@
       <c r="A979" t="s">
         <v>2777</v>
       </c>
-      <c r="B979" t="s">
+      <c r="B979" s="2" t="s">
         <v>2778</v>
       </c>
-      <c r="C979" t="s">
+      <c r="C979" s="2" t="s">
         <v>2779</v>
       </c>
       <c r="D979" t="s">
@@ -38168,10 +38167,10 @@
       <c r="A980" t="s">
         <v>2777</v>
       </c>
-      <c r="B980" t="s">
+      <c r="B980" s="2" t="s">
         <v>2780</v>
       </c>
-      <c r="C980" t="s">
+      <c r="C980" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D980" t="s">
@@ -38197,10 +38196,10 @@
       <c r="A981" t="s">
         <v>2782</v>
       </c>
-      <c r="B981" t="s">
+      <c r="B981" s="2" t="s">
         <v>2783</v>
       </c>
-      <c r="C981" t="s">
+      <c r="C981" s="2" t="s">
         <v>2784</v>
       </c>
       <c r="D981" t="s">
@@ -38229,7 +38228,7 @@
       <c r="B982" s="2" t="s">
         <v>2787</v>
       </c>
-      <c r="C982" t="s">
+      <c r="C982" s="2" t="s">
         <v>2788</v>
       </c>
       <c r="D982" t="s">
@@ -38258,7 +38257,7 @@
       <c r="B983" s="2" t="s">
         <v>3125</v>
       </c>
-      <c r="C983" s="3">
+      <c r="C983" s="2">
         <v>788</v>
       </c>
       <c r="D983" t="s">
@@ -38284,10 +38283,10 @@
       <c r="A984" t="s">
         <v>2789</v>
       </c>
-      <c r="B984" t="s">
+      <c r="B984" s="2" t="s">
         <v>2790</v>
       </c>
-      <c r="C984" t="s">
+      <c r="C984" s="2" t="s">
         <v>2791</v>
       </c>
       <c r="D984" t="s">
@@ -38313,10 +38312,10 @@
       <c r="A985" t="s">
         <v>2792</v>
       </c>
-      <c r="B985" t="s">
+      <c r="B985" s="2" t="s">
         <v>2793</v>
       </c>
-      <c r="C985" t="s">
+      <c r="C985" s="2" t="s">
         <v>2794</v>
       </c>
       <c r="D985" t="s">
@@ -38342,10 +38341,10 @@
       <c r="A986" t="s">
         <v>2795</v>
       </c>
-      <c r="B986" t="s">
+      <c r="B986" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="C986" t="s">
+      <c r="C986" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D986" t="s">
@@ -38371,10 +38370,10 @@
       <c r="A987" t="s">
         <v>2795</v>
       </c>
-      <c r="B987" t="s">
+      <c r="B987" s="2" t="s">
         <v>2798</v>
       </c>
-      <c r="C987" t="s">
+      <c r="C987" s="2" t="s">
         <v>2799</v>
       </c>
       <c r="D987" t="s">
@@ -38400,7 +38399,7 @@
       <c r="A988" t="s">
         <v>2795</v>
       </c>
-      <c r="B988" t="s">
+      <c r="B988" s="2" t="s">
         <v>2800</v>
       </c>
       <c r="C988" t="s">
@@ -38429,7 +38428,7 @@
       <c r="A989" t="s">
         <v>2795</v>
       </c>
-      <c r="B989" t="s">
+      <c r="B989" s="2" t="s">
         <v>2802</v>
       </c>
       <c r="C989" t="s">
@@ -38458,7 +38457,7 @@
       <c r="A990" t="s">
         <v>2804</v>
       </c>
-      <c r="B990" t="s">
+      <c r="B990" s="2" t="s">
         <v>2805</v>
       </c>
       <c r="C990" t="s">
@@ -38487,7 +38486,7 @@
       <c r="A991" t="s">
         <v>2807</v>
       </c>
-      <c r="B991" t="s">
+      <c r="B991" s="2" t="s">
         <v>2808</v>
       </c>
       <c r="C991" t="s">
